--- a/Biomass_solution.xlsx
+++ b/Biomass_solution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Ambiente de Trabalho\Merlin\merlin-4.0.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Documentos\GitHub\UC_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195AA852-6FA7-4B74-9DD4-B4A1872C5F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37688BB-4AFF-4B78-B4F0-AC0AE809486E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C94ABC85-F8B5-4533-8961-D8998B419AEF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="260">
   <si>
     <t>Protein</t>
   </si>
@@ -199,9 +199,6 @@
     <t>MW (g/mol)</t>
   </si>
   <si>
-    <t>UDP-N-acetyl-D-galactosamine</t>
-  </si>
-  <si>
     <t>C17H25N3O17P2</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>C15H22N2O17P2</t>
-  </si>
-  <si>
-    <t>UDP-alpha-D-galactose</t>
   </si>
   <si>
     <t>dTDP-L-rhamnose</t>
@@ -1352,6 +1346,24 @@
   </si>
   <si>
     <t>50% mono-galactosildiacilglicerol, 20 % Di-galactosyl diacylglycerol, 10 % Sulfoquinovosyl diacylglycerol, 10 % Phosphatidyl glycerol, 5 % Phosphatidyl ethanolamine, and 5 % Phosphatidylinositol (clamidomonas)</t>
+  </si>
+  <si>
+    <t>UDP-L-arabinose</t>
+  </si>
+  <si>
+    <t>UDP-D-Xylose</t>
+  </si>
+  <si>
+    <t>GDP-mannose</t>
+  </si>
+  <si>
+    <t>β1-3 glucan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celulose </t>
+  </si>
+  <si>
+    <t>UDP-alpha-D-Galactose</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,6 +1493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1618,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1692,9 +1710,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,15 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2036,7 +2055,7 @@
   <dimension ref="C1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,22 +2066,22 @@
   <sheetData>
     <row r="1" spans="3:9" ht="132.6" x14ac:dyDescent="0.3">
       <c r="D1" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>218</v>
-      </c>
       <c r="G1" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H1" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>251</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
@@ -2082,22 +2101,22 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="49">
         <v>0.52</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="49">
         <v>0.54</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="49">
         <v>0.18</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="49">
         <v>0.37</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="49">
         <v>0.51</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="49">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -2105,12 +2124,12 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49">
         <v>1E-3</v>
       </c>
     </row>
@@ -2118,12 +2137,12 @@
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2131,58 +2150,58 @@
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="49">
         <v>0.09</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="49">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="49">
         <v>0.35</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="49">
         <v>0.26</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="49">
         <v>0.12</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="49">
         <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="54">
+        <v>212</v>
+      </c>
+      <c r="D8" s="49">
         <v>0.09</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="49">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="49">
         <v>0.39</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="49">
         <v>0.3</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="49">
         <v>0.12</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="49">
         <v>0.53</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54">
+        <v>213</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49">
         <v>0.04</v>
       </c>
     </row>
@@ -2190,12 +2209,12 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D11">
@@ -2209,7 +2228,7 @@
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2245,33 +2264,33 @@
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="K4" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5">
         <v>0.32419999999999999</v>
@@ -2297,10 +2316,10 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5">
         <v>0.191</v>
@@ -2326,10 +2345,10 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5">
         <v>0.16089999999999999</v>
@@ -2355,10 +2374,10 @@
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5">
         <v>0.3271</v>
@@ -2384,7 +2403,7 @@
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11">
@@ -2439,10 +2458,10 @@
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="7">
@@ -2464,7 +2483,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2514,33 +2533,33 @@
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5">
         <v>0.208572954</v>
@@ -2566,10 +2585,10 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5">
         <v>0.30812833499999998</v>
@@ -2595,10 +2614,10 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5">
         <v>0.22450176899999999</v>
@@ -2624,10 +2643,10 @@
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5">
         <v>0.26192378599999999</v>
@@ -2653,7 +2672,7 @@
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
@@ -2719,10 +2738,10 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="5">
@@ -2744,7 +2763,7 @@
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="11"/>
@@ -2770,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDF0B7C-07CA-4C13-88D2-EC644FA6D534}">
   <dimension ref="C4:L50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -2793,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>50</v>
@@ -2802,27 +2821,27 @@
         <v>51</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -2858,7 +2877,7 @@
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -2894,7 +2913,7 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -2930,7 +2949,7 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -2966,7 +2985,7 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -3002,7 +3021,7 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -3038,7 +3057,7 @@
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -3074,7 +3093,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -3110,13 +3129,13 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="38">
         <v>147.19</v>
@@ -3146,7 +3165,7 @@
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -3182,7 +3201,7 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -3218,7 +3237,7 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -3254,13 +3273,13 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F17" s="38">
         <v>146.12</v>
@@ -3290,7 +3309,7 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3326,13 +3345,13 @@
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="38">
         <v>132.09</v>
@@ -3362,7 +3381,7 @@
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -3398,13 +3417,13 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" s="38">
         <v>175.21</v>
@@ -3434,7 +3453,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3470,7 +3489,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -3506,7 +3525,7 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -3542,7 +3561,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="40"/>
@@ -3587,10 +3606,10 @@
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>18.02</v>
@@ -3600,7 +3619,7 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="36"/>
@@ -3611,7 +3630,7 @@
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="36"/>
@@ -3622,7 +3641,7 @@
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="36"/>
@@ -3633,7 +3652,7 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="36"/>
@@ -3644,7 +3663,7 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="36"/>
@@ -3655,7 +3674,7 @@
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="36"/>
@@ -3666,7 +3685,7 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="36"/>
@@ -3677,7 +3696,7 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="36"/>
@@ -3688,7 +3707,7 @@
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="36"/>
@@ -3699,7 +3718,7 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="36"/>
@@ -3710,7 +3729,7 @@
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="36"/>
@@ -3721,7 +3740,7 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="36"/>
@@ -3732,7 +3751,7 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="36"/>
@@ -3743,7 +3762,7 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="36"/>
@@ -3754,7 +3773,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="36"/>
@@ -3765,7 +3784,7 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="36"/>
@@ -3776,7 +3795,7 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="36"/>
@@ -3787,7 +3806,7 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="36"/>
@@ -3798,7 +3817,7 @@
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="36"/>
@@ -3809,7 +3828,7 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="36"/>
@@ -3820,7 +3839,7 @@
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="36"/>
@@ -3831,7 +3850,7 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="40"/>
@@ -3856,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB3C14B-2632-499D-AF67-BE6A7C66612E}">
-  <dimension ref="B3:K28"/>
+  <dimension ref="B3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3886,33 +3905,33 @@
         <v>51</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="7">
         <v>605.34</v>
@@ -3921,32 +3940,32 @@
         <v>186.18</v>
       </c>
       <c r="G4" s="5">
-        <v>0.107</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <f>G4*F4</f>
-        <v>19.92126</v>
+        <v>186.18</v>
       </c>
       <c r="I4" s="2">
-        <f>H4/$H$8</f>
-        <v>7.8392769684568556E-2</v>
+        <f>H4/$H$12</f>
+        <v>0.20762102305041652</v>
       </c>
       <c r="J4" s="2">
-        <f>G4/$H$8*1000</f>
-        <v>0.42105902720253813</v>
+        <f>G4/$H$12*1000</f>
+        <v>1.1151628695370959</v>
       </c>
       <c r="K4" s="2">
         <f>J4*Total!$D$8</f>
-        <v>3.7895312448228427E-2</v>
+        <v>0.10036465825833862</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="50"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="7">
         <v>564.29</v>
@@ -3955,32 +3974,32 @@
         <v>436.29</v>
       </c>
       <c r="G5" s="5">
-        <v>0.36199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H7" si="0">G5*F5</f>
-        <v>157.93698000000001</v>
+        <f t="shared" ref="H5:H11" si="0">G5*F5</f>
+        <v>436.29</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I7" si="1">H5/$H$8</f>
-        <v>0.62150272110380111</v>
+        <f>H5/$H$12</f>
+        <v>0.48653440835033956</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J7" si="2">G5/$H$8*1000</f>
-        <v>1.4245174565169982</v>
+        <f>G5/$H$12*1000</f>
+        <v>1.1151628695370959</v>
       </c>
       <c r="K5" s="2">
         <f>J5*Total!$D$8</f>
-        <v>0.12820657108652983</v>
+        <v>0.10036465825833862</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="50"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7">
         <v>564.29</v>
@@ -3989,247 +4008,312 @@
         <v>145.13</v>
       </c>
       <c r="G6" s="5">
-        <v>0.48899999999999999</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>70.96857</v>
+        <v>145.13</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.27927062659958163</v>
+        <f>H6/$H$12</f>
+        <v>0.16184358725591871</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9242791056265527</v>
+        <f>G6/$H$12*1000</f>
+        <v>1.1151628695370959</v>
       </c>
       <c r="K6" s="2">
         <f>J6*Total!$D$8</f>
-        <v>0.17318511950638973</v>
+        <v>0.10036465825833862</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7">
-        <v>546.30999999999995</v>
-      </c>
-      <c r="F7" s="5">
-        <v>129.13</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2943300000000004</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0833882612048729E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16134037490938377</v>
-      </c>
-      <c r="K7" s="2">
-        <f>J7*Total!$D$8</f>
-        <v>1.4520633741844539E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
-      <c r="C8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:G8" si="3">SUM(E4:E7)</f>
-        <v>2280.23</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="3"/>
-        <v>896.73</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.999</v>
-      </c>
-      <c r="H8" s="2">
-        <f>SUM(H4:H7)</f>
-        <v>254.12114</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:K8" si="4">SUM(I4:I7)</f>
+      <c r="B8" s="54"/>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>3.9311959642554726</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.35380763678299254</v>
-      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="53" t="s">
+        <v>258</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7">
+        <v>546.30999999999995</v>
+      </c>
+      <c r="F11" s="5">
+        <v>129.13</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>129.13</v>
+      </c>
+      <c r="I11" s="2">
+        <f>H11/$H$12</f>
+        <v>0.14400098134332517</v>
+      </c>
+      <c r="J11" s="2">
+        <f>G11/$H$12*1000</f>
+        <v>1.1151628695370959</v>
+      </c>
+      <c r="K11" s="2">
+        <f>J11*Total!$D$8</f>
+        <v>0.10036465825833862</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="54"/>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:G12" si="1">SUM(E4:E11)</f>
+        <v>2280.23</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>896.73</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <f>SUM(H4:H11)</f>
+        <v>896.73</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:K12" si="2">SUM(I4:I11)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4606514781483835</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4014586330333545</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="54"/>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="50"/>
-      <c r="C12" s="5" t="s">
+      <c r="E16" s="7">
+        <v>399.16</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="2">
+        <f>J11</f>
+        <v>1.1151628695370959</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="54"/>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E17" s="7">
+        <v>401.14</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="2">
+        <f>SUM(J4:J6)</f>
+        <v>3.3454886086112876</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
+      <c r="C18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="7">
-        <v>399.16</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2">
-        <f>J7</f>
-        <v>0.16134037490938377</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="50"/>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="7">
-        <v>401.14</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2">
-        <f>SUM(J4:J6)</f>
-        <v>3.769855589346089</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7">
         <v>18.02</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="2">
-        <f>SUM(J4:J7)</f>
-        <v>3.9311959642554726</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
-      <c r="C15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="2">
+        <f>SUM(J4:J11)</f>
+        <v>4.4606514781483835</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
         <v>248</v>
       </c>
-      <c r="F22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4237,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67D339-7CAE-4D2D-ABC4-6EDF23614974}">
   <dimension ref="C6:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4258,21 +4342,21 @@
         <v>50</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="18">
         <v>7.0000000000000007E-2</v>
@@ -4287,10 +4371,10 @@
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="18">
         <v>0.03</v>
@@ -4305,10 +4389,10 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="18">
         <v>0.36</v>
@@ -4323,10 +4407,10 @@
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="18">
         <v>0.23</v>
@@ -4341,10 +4425,10 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="18">
         <v>0.09</v>
@@ -4359,10 +4443,10 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="18">
         <v>0.05</v>
@@ -4377,10 +4461,10 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" s="18">
         <v>0.17</v>
@@ -4395,7 +4479,7 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -4408,7 +4492,7 @@
     <row r="15" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -4419,7 +4503,7 @@
     </row>
     <row r="17" spans="3:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -4429,15 +4513,15 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
       <c r="K20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -4448,18 +4532,18 @@
         <v>50</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="18">
@@ -4476,7 +4560,7 @@
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="18">
@@ -4493,7 +4577,7 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="18">
@@ -4510,7 +4594,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="18">
@@ -4527,7 +4611,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="18">
@@ -4544,7 +4628,7 @@
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="18">
@@ -4561,7 +4645,7 @@
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="18">
@@ -4578,7 +4662,7 @@
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="18">
@@ -4595,7 +4679,7 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="18">
@@ -4612,7 +4696,7 @@
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="18">
@@ -4629,7 +4713,7 @@
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="18">
@@ -4646,7 +4730,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="18">
@@ -4663,7 +4747,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="18">
@@ -4680,7 +4764,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="18">
@@ -4697,7 +4781,7 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="18">
@@ -4714,7 +4798,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="18">
@@ -4731,7 +4815,7 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="18">
@@ -4748,7 +4832,7 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="18">
@@ -4764,8 +4848,8 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="49" t="s">
-        <v>237</v>
+      <c r="C40" s="52" t="s">
+        <v>235</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="18">
@@ -4782,7 +4866,7 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="18">
@@ -4799,7 +4883,7 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -4812,7 +4896,7 @@
     <row r="43" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="3:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -4823,7 +4907,7 @@
     </row>
     <row r="45" spans="3:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -4869,33 +4953,33 @@
         <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -4919,15 +5003,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="N4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -4953,10 +5037,10 @@
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4979,14 +5063,14 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -5010,15 +5094,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="N7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -5044,7 +5128,7 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5083,33 +5167,33 @@
         <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -5139,10 +5223,10 @@
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -5172,10 +5256,10 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="5">
         <v>4</v>
@@ -5205,10 +5289,10 @@
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -5238,10 +5322,10 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
@@ -5271,7 +5355,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -5300,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA410950-D289-4EA7-91EB-1B1B634E8168}">
   <dimension ref="D3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5316,7 +5400,7 @@
   <sheetData>
     <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="4:9" ht="15.6" x14ac:dyDescent="0.35">
@@ -5327,24 +5411,24 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -5363,10 +5447,10 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -5385,10 +5469,10 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -5407,10 +5491,10 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -5429,10 +5513,10 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -5451,10 +5535,10 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -5473,10 +5557,10 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -5495,10 +5579,10 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -5517,10 +5601,10 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -5539,10 +5623,10 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -5561,10 +5645,10 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -5583,10 +5667,10 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -5605,10 +5689,10 @@
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -5627,10 +5711,10 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D18" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -5649,10 +5733,10 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D19" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -5671,10 +5755,10 @@
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -5693,7 +5777,7 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11">
@@ -5715,7 +5799,7 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
